--- a/notebooks/assets/test_random_selection/RFnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFnh3_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.665</v>
+        <v>0.483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.211</v>
+        <v>0.28</v>
       </c>
       <c r="D2" t="n">
-        <v>1.313</v>
+        <v>0.526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.979</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.556</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.732</v>
+        <v>0.993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.431</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>3.918</v>
+        <v>1.184</v>
       </c>
       <c r="E3" t="n">
-        <v>2.754</v>
+        <v>2.316</v>
       </c>
       <c r="F3" t="n">
-        <v>1.28</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.714</v>
+        <v>1.199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.265</v>
+        <v>0.43</v>
       </c>
       <c r="D4" t="n">
-        <v>26.521</v>
+        <v>1.556</v>
       </c>
       <c r="E4" t="n">
-        <v>10.885</v>
+        <v>6.147</v>
       </c>
       <c r="F4" t="n">
-        <v>2.022</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.991</v>
+        <v>0.997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.996</v>
+        <v>0.992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.875</v>
+        <v>0.994</v>
       </c>
       <c r="E5" t="n">
-        <v>0.973</v>
+        <v>0.987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>11.746</v>
       </c>
       <c r="E6" t="n">
-        <v>14.173</v>
+        <v>14.18</v>
       </c>
       <c r="F6" t="n">
-        <v>12.014</v>
+        <v>12.012</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.2</v>
+        <v>19.196</v>
       </c>
       <c r="C7" t="n">
-        <v>12.132</v>
+        <v>12.126</v>
       </c>
       <c r="D7" t="n">
-        <v>17.897</v>
+        <v>17.744</v>
       </c>
       <c r="E7" t="n">
-        <v>21.2</v>
+        <v>21.241</v>
       </c>
       <c r="F7" t="n">
-        <v>13.701</v>
+        <v>13.697</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +608,10 @@
         <v>323.418</v>
       </c>
       <c r="E8" t="n">
-        <v>455.809</v>
+        <v>456.145</v>
       </c>
       <c r="F8" t="n">
-        <v>188.671</v>
+        <v>188.65</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.631</v>
+        <v>-1.511</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.15</v>
+        <v>-0.158</v>
       </c>
       <c r="E9" t="n">
-        <v>0.022</v>
+        <v>-0.001</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07099999999999999</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
